--- a/日本語勉強(N2).xlsx
+++ b/日本語勉強(N2).xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20076" windowHeight="6600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20201006" sheetId="1" r:id="rId1"/>
+    <sheet name="20201023" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>日本語勉強(文法)</t>
   </si>
@@ -33,9 +34,6 @@
   </si>
   <si>
     <t>文法パータン</t>
-  </si>
-  <si>
-    <t>チェック</t>
   </si>
   <si>
     <t>に従って</t>
@@ -68,13 +66,417 @@
     <t>①虹の末に金の鍋があると言われた
 ②あの授業の末に、みんなは笑った
 ③今年の末に、コロナがまだ問題になるでしょう</t>
+  </si>
+  <si>
+    <t>渡辺例文</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>レイブン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①〇
+②〇
+③〇</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「～くせに」は悪口や批判をするときに使う表現です。
+①あいつは、
+②指示が曖昧なくせに、完璧な仕事を求められた。
+③〇　ですが、使わない表現です。</t>
+    <rPh sb="7" eb="9">
+      <t>ワルクチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒハン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>アイマイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カンペキ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・色々悩んだ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>末に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、働き続けることを決めた。
+・厳しいレッスンの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>末に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、難しい試験に合格した。</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナヤ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スエ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハタラ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①詳細設計仕様書に従うと、このテキストボックスは表示されないはずだけど、表示された。
+②×　天気予報に従って、傘を持っていきます。
+③×　F社からの評価だと、私は曖昧な指示で動けないらしい。</t>
+    <rPh sb="1" eb="3">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>テンキ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヨホウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>カサ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ワタシ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>アイマイ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・マニュアル</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に従って</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>機械を操作した。
+・お店の指示</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に従って</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>列に並んだ。</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キカイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ミセ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ナラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①？
+②面白いことをやる授業なら、〇かな。
+③文としては〇。「末に」が求める使い方としては×
+”今年の末”は時期を示すもので、”～末に”は、「いろいろした結果…」という意味で使うものです。</t>
+    <rPh sb="4" eb="6">
+      <t>オモシロ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スエ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>コトシ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>スエ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>シメ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>スエ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>・彼は10年日本にいた</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>くせに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、英語がまったく話せない</t>
+    </r>
+    <rPh sb="1" eb="2">
+      <t>カレ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>エイゴ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>渡辺チェック</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>にあたり</t>
+  </si>
+  <si>
+    <t>に沿って</t>
+  </si>
+  <si>
+    <t>に先立ち</t>
+  </si>
+  <si>
+    <t>すべきではない</t>
+  </si>
+  <si>
+    <t>ざれるを得ない</t>
+  </si>
+  <si>
+    <t>①セミナー５の利用あたり、出勤表の記載が必要です。
+②ゲームをするにあたっては、学業に無理のないようにすること。
+③テキストを書くにあたり、論文は分かりやすいように注意ください。</t>
+  </si>
+  <si>
+    <t>①仕様に沿って、ご説明いたします。
+②お客様ひとりひとりのご希望に沿ったシステムをご開発いたします。
+③会社の理念に沿って、方針を立てます。</t>
+  </si>
+  <si>
+    <t>①入社に先立ち、色々なシステムを作りました。
+②製品の開発に先立って、顧客の声を聞いた。
+③閉店に先立ち、全品90%セールを行われた。</t>
+  </si>
+  <si>
+    <t>①悪い言葉を言うべきではない。
+②もっと勉強するべきだった。
+③あのところ行くべきではなかった。</t>
+  </si>
+  <si>
+    <t>①難しいな仕事でも、成長のためには続けざるを得ない。
+②設計が間違ったと不具合を直すために、再設計が行わざるを得ない。
+③不快でも、生き残るためにやめざるをえない。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,16 +501,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,26 +540,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -416,78 +877,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="60.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="3" max="3" width="48.77734375" customWidth="1"/>
+    <col min="4" max="4" width="56.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.4">
+    <row r="1" spans="1:5" ht="23.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="72">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="57.6">
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="43.2">
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="57.6">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="43.2">
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="72">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="43.2">
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="59.44140625" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="4"/>
+    <row r="4" spans="1:5" ht="86.4">
+      <c r="B4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="57.6">
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" ht="43.2">
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="43.2">
+      <c r="B7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="57.6">
+      <c r="B8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/日本語勉強(N2).xlsx
+++ b/日本語勉強(N2).xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skensyu01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skensyu01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20076" windowHeight="6600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="20201006" sheetId="1" r:id="rId1"/>
     <sheet name="20201023" sheetId="2" r:id="rId2"/>
+    <sheet name="20201030" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>日本語勉強(文法)</t>
   </si>
@@ -452,11 +453,6 @@
 ③テキストを書くにあたり、論文は分かりやすいように注意ください。</t>
   </si>
   <si>
-    <t>①仕様に沿って、ご説明いたします。
-②お客様ひとりひとりのご希望に沿ったシステムをご開発いたします。
-③会社の理念に沿って、方針を立てます。</t>
-  </si>
-  <si>
     <t>①入社に先立ち、色々なシステムを作りました。
 ②製品の開発に先立って、顧客の声を聞いた。
 ③閉店に先立ち、全品90%セールを行われた。</t>
@@ -470,6 +466,51 @@
     <t>①難しいな仕事でも、成長のためには続けざるを得ない。
 ②設計が間違ったと不具合を直すために、再設計が行わざるを得ない。
 ③不快でも、生き残るためにやめざるをえない。</t>
+  </si>
+  <si>
+    <t>①仕様に沿って、ご説明いたします。
+②お客様ひとりひとりのご希望に沿ったシステムを開発いたします。
+③会社の理念に沿って、方針を立てます。</t>
+  </si>
+  <si>
+    <t>に際して</t>
+  </si>
+  <si>
+    <t>もかまわず</t>
+  </si>
+  <si>
+    <t>にしろ</t>
+  </si>
+  <si>
+    <t>やら</t>
+  </si>
+  <si>
+    <t>をもとに</t>
+  </si>
+  <si>
+    <t>①職場見学に際して、練習しておいたほうがいいです。
+②転居に際して、しっかりと場所を調査します。
+③携帯プランの申し込みに際して、個人情報の資料を準備してください。</t>
+  </si>
+  <si>
+    <t>①あの人は相手の国籍もかまわず、日本語でしゃべりしている。
+②気分が悪いのものかまわず、バスケをやる。
+③空腹もかまわず、しっかりと運動しました。</t>
+  </si>
+  <si>
+    <t>①設計にしろ実装にしろ、チームワークは大事だ。
+②成功するにしろ失敗するにしろ、どちもいいレッスンだよ
+③トヨタにしろレクサスにしろ、同じグループ会社ですので品質はよいです。</t>
+  </si>
+  <si>
+    <t>①鞄の中に本やらペンやらが入っている
+②先週は体が痛いやら気持ちが悪いやら、休みをとった
+③ケビンがワイヤーやら抵抗やら、会社に借りる</t>
+  </si>
+  <si>
+    <t>①先ほど面談をもとに、転居可能性がある。
+②この本はあの人が生ける時の経験をもとにして作られた小説です。
+③調査結果をもとに、この不具合を直します。</t>
   </si>
 </sst>
 </file>
@@ -983,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1015,7 +1056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="86.4">
+    <row r="4" spans="1:5" ht="72">
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
@@ -1030,7 +1071,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
@@ -1040,7 +1081,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -1050,7 +1091,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
@@ -1060,7 +1101,98 @@
         <v>24</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="50.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="86.4">
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="86.4">
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" ht="72">
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="57.6">
+      <c r="B7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="57.6">
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>

--- a/日本語勉強(N2).xlsx
+++ b/日本語勉強(N2).xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20076" windowHeight="6600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="20201006" sheetId="1" r:id="rId1"/>
     <sheet name="20201023" sheetId="2" r:id="rId2"/>
     <sheet name="20201030" sheetId="3" r:id="rId3"/>
+    <sheet name="20201106" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
   <si>
     <t>日本語勉強(文法)</t>
   </si>
@@ -512,12 +513,318 @@
 ②この本はあの人が生ける時の経験をもとにして作られた小説です。
 ③調査結果をもとに、この不具合を直します。</t>
   </si>
+  <si>
+    <t>完璧です。</t>
+    <rPh sb="0" eb="2">
+      <t>カンペキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>意味としてはOK、だけど、一部違和感あり。（ハイレベルな指摘です）
+①あの人は相手の国籍</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>にかまわず</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、日本語で話している。
+②気分が悪い</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のもかまわず</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、バスケをやる
+③〇</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>イワカン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コクセキ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>キブン</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>文法は〇、それ以外の指摘です。
+①〇
+②〇
+③ケビンがワイヤーから抵抗やら</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を会社から借りる</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ブンポウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>テイコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">文法は〇、それ以外の指摘です。
+①〇
+②成功するにしろ失敗するにしろ、とてもいいレッスンだよ。
+③たぶん〇
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>⇒レクサスは車種名ではないの？メーカー名なの？</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ブンポウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>シャシュ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>①△
+先ほどの面談内容をもとに、転居の可能性を検討する。
+②この本は、あの人が</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生きているときの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>経験ををもとにしてつくられた小説です。
+③〇　”調査結果”は”検査結果”でも良い。</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>メンダン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>テンキョ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ショウセツ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>〜に加えて</t>
+  </si>
+  <si>
+    <t>〜ないで済む / 〜ずに済む</t>
+  </si>
+  <si>
+    <t>①レストランのガラスを壊してしまったが、アルバイトで助けたらお金を払わずに済んだ。
+②お兄さんが、もう使わないからと、欲しかった財布をくれたので、買わずに済みました。
+③必要な情報はインタネットにあったので、図書館に行かずに済みました。</t>
+  </si>
+  <si>
+    <t>〜につけて</t>
+  </si>
+  <si>
+    <t>①このシステムを使いたいのであれば、新たなハードウェアに加えて、研修のためのお金がかかっています。
+②携帯プランの初期費用1万円に加えて、携帯電話の手数料と月利用料がかかります。
+③あの設計仕様書を作成したら、英語版に加えて、日本語版も必要です。</t>
+  </si>
+  <si>
+    <r>
+      <t>①あの音楽を聞くにつけて、アメリカにいた</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ごろ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を思い出す
+②電話で家族の声を聞くにつけて、もっと仕事を頑張らなきゃと思う。
+③日本映画を見るにつけて、日本に旅行したことを思い出す。</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,6 +863,29 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -600,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -638,6 +968,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1025,7 +1364,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:E8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1107,6 +1446,7 @@
       <c r="E8" s="14"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1115,15 +1455,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="50.5546875" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="50.44140625" customWidth="1"/>
+    <col min="4" max="4" width="47" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1147,15 +1487,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="86.4">
+    <row r="4" spans="1:5" ht="72">
       <c r="B4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="D4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="86.4">
       <c r="B5" s="6" t="s">
@@ -1164,40 +1508,121 @@
       <c r="C5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="D5" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" ht="100.8">
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" ht="72">
+      <c r="B7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" ht="86.4">
+      <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" customWidth="1"/>
+    <col min="4" max="4" width="53.6640625" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="86.4">
+      <c r="B4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" ht="86.4">
+      <c r="B5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5" ht="72">
       <c r="B6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" ht="57.6">
-      <c r="B7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" ht="57.6">
-      <c r="B8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+        <v>48</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/日本語勉強(N2).xlsx
+++ b/日本語勉強(N2).xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20076" windowHeight="6600" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="20201006" sheetId="1" r:id="rId1"/>
     <sheet name="20201023" sheetId="2" r:id="rId2"/>
     <sheet name="20201030" sheetId="3" r:id="rId3"/>
     <sheet name="20201106" sheetId="4" r:id="rId4"/>
+    <sheet name="20201113" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
   <si>
     <t>日本語勉強(文法)</t>
   </si>
@@ -818,6 +819,62 @@
 ②電話で家族の声を聞くにつけて、もっと仕事を頑張らなきゃと思う。
 ③日本映画を見るにつけて、日本に旅行したことを思い出す。</t>
     </r>
+  </si>
+  <si>
+    <t>～ばかりか</t>
+  </si>
+  <si>
+    <t>①コロナの状況が変わっていないばかりか、もっとひどくなっている
+②あのシステムはWindowsばかりか、そのほか2つなOSで設計されました
+③あの店が食べ物ばかりか、雑誌と本が販売される</t>
+  </si>
+  <si>
+    <t>～甲斐（がい）</t>
+  </si>
+  <si>
+    <t>～とは逆に</t>
+  </si>
+  <si>
+    <t>①人ごみを増えないために、怖い写真を投稿されましたが、逆に人込みが増えた
+②休み長すぎると、逆に仕事の進捗を考えて安心しなくなる
+③健康のために外に歩くと、逆に新型コロナ感染のリスクが含める</t>
+  </si>
+  <si>
+    <t>～に相違ない</t>
+  </si>
+  <si>
+    <t>①あの人は経験を確認すると、この仕事を出来るに相違ない
+②不具合の原因は、この関数が未実装に相違ない
+③難しい仕事を我慢したら、速く成長できることに相違ない</t>
+  </si>
+  <si>
+    <t>～に似合わず</t>
+  </si>
+  <si>
+    <t>①見た目に似合わず優しい
+②身長に似合わず、声は小さい
+③身体の体調に似合わず生命を脅かす病気である</t>
+  </si>
+  <si>
+    <t>～に先駆け／に先駆けて</t>
+  </si>
+  <si>
+    <t>①1月に先駆けて新規モデルを発表する
+②知り合いの誕生日に先駆けてサプライズパーティーを計画している
+③他の会社に先駆けて、当社の製品はTRON OSで開発された</t>
+  </si>
+  <si>
+    <t>～矢先</t>
+  </si>
+  <si>
+    <t>①時間が勉強に利用と思った矢先に、仕事が入った
+②損傷から直す矢先に今度コロナにかかった
+③今年の最後台風と思った矢先に、3つ台風が襲う発表されました</t>
+  </si>
+  <si>
+    <t>①この仕事はやりがいがある
+②結果が見えないと頑張りがいがない
+③高くても、ミシュランガイドにある各店の利用りは食べがいがある</t>
   </si>
 </sst>
 </file>
@@ -1559,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1625,4 +1682,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57.6">
+      <c r="B4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" ht="43.2">
+      <c r="B5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" ht="57.6">
+      <c r="B6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" ht="43.2">
+      <c r="B7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" ht="43.2">
+      <c r="B8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" ht="43.2">
+      <c r="B9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="43.2">
+      <c r="B10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/日本語勉強(N2).xlsx
+++ b/日本語勉強(N2).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skensyu01\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kevin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F439401A-2B44-0847-9B65-90A5CC281935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="4"/>
+    <workbookView xWindow="-44660" yWindow="-8280" windowWidth="26180" windowHeight="15560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20201006" sheetId="1" r:id="rId1"/>
@@ -17,6 +18,7 @@
     <sheet name="20201030" sheetId="3" r:id="rId3"/>
     <sheet name="20201106" sheetId="4" r:id="rId4"/>
     <sheet name="20201113" sheetId="5" r:id="rId5"/>
+    <sheet name="20201120" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
   <si>
     <t>日本語勉強(文法)</t>
   </si>
@@ -824,36 +826,16 @@
     <t>～ばかりか</t>
   </si>
   <si>
-    <t>①コロナの状況が変わっていないばかりか、もっとひどくなっている
-②あのシステムはWindowsばかりか、そのほか2つなOSで設計されました
-③あの店が食べ物ばかりか、雑誌と本が販売される</t>
-  </si>
-  <si>
     <t>～甲斐（がい）</t>
   </si>
   <si>
     <t>～とは逆に</t>
   </si>
   <si>
-    <t>①人ごみを増えないために、怖い写真を投稿されましたが、逆に人込みが増えた
-②休み長すぎると、逆に仕事の進捗を考えて安心しなくなる
-③健康のために外に歩くと、逆に新型コロナ感染のリスクが含める</t>
-  </si>
-  <si>
     <t>～に相違ない</t>
   </si>
   <si>
-    <t>①あの人は経験を確認すると、この仕事を出来るに相違ない
-②不具合の原因は、この関数が未実装に相違ない
-③難しい仕事を我慢したら、速く成長できることに相違ない</t>
-  </si>
-  <si>
     <t>～に似合わず</t>
-  </si>
-  <si>
-    <t>①見た目に似合わず優しい
-②身長に似合わず、声は小さい
-③身体の体調に似合わず生命を脅かす病気である</t>
   </si>
   <si>
     <t>～に先駆け／に先駆けて</t>
@@ -867,21 +849,569 @@
     <t>～矢先</t>
   </si>
   <si>
-    <t>①時間が勉強に利用と思った矢先に、仕事が入った
-②損傷から直す矢先に今度コロナにかかった
-③今年の最後台風と思った矢先に、3つ台風が襲う発表されました</t>
+    <r>
+      <t>①コロナの状況が変わっていないばかりか、もっとひどくなっている
+②あのシステムはWindowsばかりか、そのほか2つ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OSで設計されました
+③あの店</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>食べ物ばかりか、雑誌と本が販売される（売られている）</t>
+    </r>
+    <rPh sb="94" eb="95">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>①この仕事はやりがいがある
 ②結果が見えないと頑張りがいがない
-③高くても、ミシュランガイドにある各店の利用りは食べがいがある</t>
+③高くても、ミシュランガイドにある各店の料理は食べがいがある</t>
+    <rPh sb="52" eb="54">
+      <t>リョウリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>①人ごみを増えないために、怖い写真を投稿されましたが、逆に人込みが増えた
+⇒人混みが増えないように、怖い写真を投稿したが、逆に人混みが増えた。
+②休み長すぎると、逆に仕事の進捗を考えて安心しなくなる
+⇒休み</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>長すぎると、逆に仕事の進捗を考えて安心</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>できなくなる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+③健康のために外に歩くと、逆に新型コロナ感染のリスクが含める
+⇒健康のために外に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>散歩に行くと（行くと）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、逆に新型コロナ感染のリスクが</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>高まる</t>
+    </r>
+    <rPh sb="38" eb="40">
+      <t>ヒトゴ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>アンシン</t>
+    </rPh>
+    <rPh sb="162" eb="164">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>サンポ</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="182" eb="183">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>シンガタ</t>
+    </rPh>
+    <rPh sb="189" eb="191">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="196" eb="197">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>①あの人は経験を確認すると、この仕事を出来るに相違ない
+⇒あの人</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>経験を確認すると、この仕事を出来るに相違ない
+②不具合の原因は、この関数が未実装に相違ない
+③難しい仕事を我慢したら、速く成長できることに相違ない
+⇒難しい仕事に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>挑戦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>したら、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>早く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成長できることに相違ない</t>
+    </r>
+    <rPh sb="31" eb="32">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ソウイ</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>チョウセン</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>セイチョウ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>ソウイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①見た目に似合わず優しい
+②身長に似合わず、声は小さい
+③身体の体調に似合わず生命を脅かす病気である
+⇒見た目に似合わず、生命を脅かす病気である</t>
+    <rPh sb="52" eb="53">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ニア</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>①時間が勉強に利用と思った矢先に、仕事が入った
+⇒勉強をしようと思った矢先に仕事が入った。
+⇒勉強の時間を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>とろう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と思った矢先に～
+⇒勉強の時間を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>作ろう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と思った矢先に～
+②損傷から直す矢先に今度コロナにかかった
+⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>怪我が治った</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>矢先に今度はコロナにかかった
+③今年の最後台風と思った矢先に、3つ台風が襲う発表されました
+⇒台風が去った矢先に、3つの台風が発生したことが発表された。</t>
+    </r>
+    <rPh sb="25" eb="27">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヤサキ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヤサキ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ベンキョウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ヤサキ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ケガ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ヤサキ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>コンド</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>タイフウ</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>ヤサキ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>タイフウ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>～向け</t>
+  </si>
+  <si>
+    <t>① このマンションはペット持っている人向けに建てられた。
+② この街は車向けに設計されました。
+③ この会社は日本に住んでいる外国籍のサポート向けに設立されました。</t>
+  </si>
+  <si>
+    <t>～っこない</t>
+  </si>
+  <si>
+    <t>～でばかりはいらない</t>
+  </si>
+  <si>
+    <t>① 一度試しただけで、いつでも喜んでばかりいられない。
+② 悩んでばかりもいられないから、まず一生懸命頑張ろうと思います。
+③ 自分のスキルだけで頑張ります。先輩の能力に頼ってばかりもいられないです。</t>
+  </si>
+  <si>
+    <t>～ぬく</t>
+  </si>
+  <si>
+    <t>① 10歳以前は父上の白髪をよく引き抜きていた。
+② 色々と考え抜いて出した決定なので、気持ちが変わることはない。
+③ 初めての研修で不安だったが最後まで、やり抜きました。</t>
+  </si>
+  <si>
+    <t>① あなたが決めることではないから何度も希望を伝えても、実現しっこない。
+② 勉強が悪くなったら、良い転職先なんて見つかりっこない。
+③ 遅くない？これから急いでバス停に言っても、予約を間に合いっこない。</t>
+  </si>
+  <si>
+    <t>～のももっとも</t>
+  </si>
+  <si>
+    <t>① 確かにコミュニケションできないことが、顧客の自信を取れないもっともな理由だ。
+② 日本語を話さないのに、日本に働くなんて言いたら、家族が心配するのももっともだ。
+③ 上西さんの背景の経験を聞いたら、その仕事をできるなんて信じるのももっともだ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1036,7 +1566,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,28 +1843,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="48.77734375" customWidth="1"/>
-    <col min="4" max="4" width="56.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.77734375" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
+    <col min="4" max="4" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.4">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -1349,7 +1879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="72">
+    <row r="4" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1363,7 +1893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.2">
+    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1375,7 +1905,7 @@
       </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="57.6">
+    <row r="6" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1389,7 +1919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="72">
+    <row r="7" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1403,10 +1933,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
     </row>
   </sheetData>
@@ -1417,27 +1947,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.109375" customWidth="1"/>
-    <col min="3" max="3" width="59.44140625" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="59.5" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" customWidth="1"/>
+    <col min="5" max="5" width="40.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.4">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -1452,7 +1982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="72">
+    <row r="4" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
@@ -1462,7 +1992,7 @@
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:5" ht="57.6">
+    <row r="5" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
@@ -1472,7 +2002,7 @@
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5" ht="43.2">
+    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
@@ -1482,7 +2012,7 @@
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5" ht="43.2">
+    <row r="7" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>23</v>
       </c>
@@ -1492,7 +2022,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5" ht="57.6">
+    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>24</v>
       </c>
@@ -1509,27 +2039,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.21875" customWidth="1"/>
-    <col min="3" max="3" width="50.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="50.5" customWidth="1"/>
     <col min="4" max="4" width="47" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.4">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -1544,7 +2074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="72">
+    <row r="4" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>30</v>
       </c>
@@ -1558,7 +2088,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="86.4">
+    <row r="5" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
@@ -1570,7 +2100,7 @@
       </c>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" ht="100.8">
+    <row r="6" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +2112,7 @@
       </c>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" ht="72">
+    <row r="7" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>33</v>
       </c>
@@ -1594,7 +2124,7 @@
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" ht="86.4">
+    <row r="8" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>34</v>
       </c>
@@ -1613,27 +2143,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
     <col min="3" max="3" width="58.6640625" customWidth="1"/>
     <col min="4" max="4" width="53.6640625" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.4">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -1648,7 +2178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="86.4">
+    <row r="4" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>45</v>
       </c>
@@ -1658,7 +2188,7 @@
       <c r="D4" s="16"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:5" ht="86.4">
+    <row r="5" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>46</v>
       </c>
@@ -1668,7 +2198,7 @@
       <c r="D5" s="16"/>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" ht="72">
+    <row r="6" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>48</v>
       </c>
@@ -1679,33 +2209,35 @@
       <c r="E6" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="3" max="3" width="67.6640625" customWidth="1"/>
-    <col min="4" max="4" width="42.109375" customWidth="1"/>
+    <col min="3" max="3" width="81" customWidth="1"/>
+    <col min="4" max="4" width="42.1640625" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.4">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -1720,75 +2252,168 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="57.6">
+    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:5" ht="43.2">
+    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" ht="57.6">
+    <row r="6" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" ht="43.2">
+    <row r="7" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" ht="43.2">
+    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5" ht="43.2">
+    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" ht="43.2">
+    <row r="10" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A295311-B3FB-EB4A-972B-F75B2FCBA8D5}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="81" customWidth="1"/>
+    <col min="4" max="4" width="42.1640625" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/日本語勉強(N2).xlsx
+++ b/日本語勉強(N2).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kevin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skensyu01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F439401A-2B44-0847-9B65-90A5CC281935}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44660" yWindow="-8280" windowWidth="26180" windowHeight="15560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="20201006" sheetId="1" r:id="rId1"/>
@@ -19,18 +18,25 @@
     <sheet name="20201106" sheetId="4" r:id="rId4"/>
     <sheet name="20201113" sheetId="5" r:id="rId5"/>
     <sheet name="20201120" sheetId="7" r:id="rId6"/>
+    <sheet name="20201127" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
   <si>
     <t>日本語勉強(文法)</t>
   </si>
@@ -1389,11 +1395,6 @@
     <t>～ぬく</t>
   </si>
   <si>
-    <t>① 10歳以前は父上の白髪をよく引き抜きていた。
-② 色々と考え抜いて出した決定なので、気持ちが変わることはない。
-③ 初めての研修で不安だったが最後まで、やり抜きました。</t>
-  </si>
-  <si>
     <t>① あなたが決めることではないから何度も希望を伝えても、実現しっこない。
 ② 勉強が悪くなったら、良い転職先なんて見つかりっこない。
 ③ 遅くない？これから急いでバス停に言っても、予約を間に合いっこない。</t>
@@ -1402,16 +1403,393 @@
     <t>～のももっとも</t>
   </si>
   <si>
-    <t>① 確かにコミュニケションできないことが、顧客の自信を取れないもっともな理由だ。
-② 日本語を話さないのに、日本に働くなんて言いたら、家族が心配するのももっともだ。
-③ 上西さんの背景の経験を聞いたら、その仕事をできるなんて信じるのももっともだ</t>
+    <r>
+      <t xml:space="preserve">①～③まで〇
+補足説明：「～っこない」という言い方は、
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>いじけている（すねる）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ときに使う表現です。</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>ホソク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①～③まで〇</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>① 10歳以前は父上の白髪をよく引き抜</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>き</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ていた。
+② 色々と考え抜いて出した決定なので、気持ちが変わることはない。
+③ 初めての研修で不安だったが最後まで、やり抜きました。</t>
+    </r>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①　×
+⇒「～ぬく」は「最後まで～する」という意味の文法なので、引き抜くとは異なります。
+②、③は〇</t>
+    <rPh sb="12" eb="14">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ブンポウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>① 確かにコミュニケションできないことが、顧客の自信を取れないもっともな理由だ。
+② 日本語を話</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>さ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ないのに、日本に働くなんて言いたら、家族が心配するのももっともだ。
+⇒日本語を話</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>せ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ないのに日本</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>働く</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と言うなんて</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、家族が心配するのももっともだ。
+③ 上西さんの背景の経験を聞いたら、その仕事をできるなんて信じるのももっともだ
+⇒上西さんの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>過去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の経験を聞いたら、その仕事ができる</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ことをみんなが認めるのも</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>もっともだ。</t>
+    </r>
+    <rPh sb="84" eb="87">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ハタラ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>シンパイ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>カミニシ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>ケイケン</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="194" eb="195">
+      <t>ミト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①たぶん〇
+⇒「顧客の自身を取れない」は「信頼を得られない」と言いたい？
+②〇
+③〇　
+ケビンさんが言いたいことはこれ？と想像して書きました。間違っていたらごめんなさい。</t>
+    <rPh sb="8" eb="10">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ソウゾウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>マチガ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>～再び</t>
+  </si>
+  <si>
+    <t>① 来年から人生を再び始めます。
+② 5年後にようやく、再び帰国できました。
+③ あの町に再び歩きました。</t>
+  </si>
+  <si>
+    <t>～いよいよ</t>
+  </si>
+  <si>
+    <t>①　いよいよ一人暮らしの生活を始まります。4年ぶり再び一人暮らしからちょっと悩んでいます。
+②　昨晩からのどが痛くなった。今朝に痛みがいよいよひどくなった。
+③　レベルを上げると試験はいよいよ難しいくなるよ。</t>
+  </si>
+  <si>
+    <t>～からといって</t>
+  </si>
+  <si>
+    <t>①　できるからと言って、やるとは限れない。
+②　高いからと言って、品質はよいことではない。
+③　美味しいからと言って、作りにくい食べ物と言わない。</t>
+  </si>
+  <si>
+    <t>～せっかく</t>
+  </si>
+  <si>
+    <t>①　せっかく準備したのに、失敗しまいました。
+②　行列はせっかく長くなったので、あきらめた。
+③　アトラクションがせっかく楽しかったのに、時間が足りなかった。</t>
+  </si>
+  <si>
+    <t>～てはいられない</t>
+  </si>
+  <si>
+    <t>①　そんなひどいことを見られて寝てはいられない。
+②　もうすぐ私見だから遊んではいられない。
+③　スケジュールよりプロジェクトは10日遅れるので、仕事を休んでいられない。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1473,6 +1851,21 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1566,7 +1959,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1843,28 +2236,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="48.6640625" customWidth="1"/>
     <col min="4" max="4" width="56.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="23.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -1879,7 +2272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="72">
       <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1893,7 +2286,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="43.2">
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -1905,7 +2298,7 @@
       </c>
       <c r="E5" s="11"/>
     </row>
-    <row r="6" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="57.6">
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1919,7 +2312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="72">
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1933,10 +2326,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9" s="3"/>
     </row>
   </sheetData>
@@ -1947,27 +2340,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="59.5" customWidth="1"/>
-    <col min="4" max="4" width="33.83203125" customWidth="1"/>
-    <col min="5" max="5" width="40.83203125" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="59.44140625" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="23.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -1982,7 +2375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="72">
       <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
@@ -1992,7 +2385,7 @@
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="57.6">
       <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
@@ -2002,7 +2395,7 @@
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="43.2">
       <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
@@ -2012,7 +2405,7 @@
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="43.2">
       <c r="B7" s="13" t="s">
         <v>23</v>
       </c>
@@ -2022,7 +2415,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="57.6">
       <c r="B8" s="13" t="s">
         <v>24</v>
       </c>
@@ -2039,27 +2432,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="26.1640625" customWidth="1"/>
-    <col min="3" max="3" width="50.5" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="50.44140625" customWidth="1"/>
     <col min="4" max="4" width="47" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="23.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -2074,7 +2467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="72">
       <c r="B4" s="6" t="s">
         <v>30</v>
       </c>
@@ -2088,7 +2481,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="86.4">
       <c r="B5" s="6" t="s">
         <v>31</v>
       </c>
@@ -2100,7 +2493,7 @@
       </c>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="100.8">
       <c r="B6" s="6" t="s">
         <v>32</v>
       </c>
@@ -2112,7 +2505,7 @@
       </c>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="72">
       <c r="B7" s="13" t="s">
         <v>33</v>
       </c>
@@ -2124,7 +2517,7 @@
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="86.4">
       <c r="B8" s="13" t="s">
         <v>34</v>
       </c>
@@ -2143,27 +2536,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
     <col min="3" max="3" width="58.6640625" customWidth="1"/>
     <col min="4" max="4" width="53.6640625" customWidth="1"/>
-    <col min="5" max="5" width="31.83203125" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="23.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -2178,7 +2571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="86.4">
       <c r="B4" s="6" t="s">
         <v>45</v>
       </c>
@@ -2188,7 +2581,7 @@
       <c r="D4" s="16"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="86.4">
       <c r="B5" s="6" t="s">
         <v>46</v>
       </c>
@@ -2198,7 +2591,7 @@
       <c r="D5" s="16"/>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="72">
       <c r="B6" s="6" t="s">
         <v>48</v>
       </c>
@@ -2216,28 +2609,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
     <col min="2" max="2" width="35.33203125" customWidth="1"/>
     <col min="3" max="3" width="81" customWidth="1"/>
-    <col min="4" max="4" width="42.1640625" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="23.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -2252,7 +2645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="43.2">
       <c r="B4" s="6" t="s">
         <v>51</v>
       </c>
@@ -2262,7 +2655,7 @@
       <c r="D4" s="16"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="43.2">
       <c r="B5" s="6" t="s">
         <v>52</v>
       </c>
@@ -2272,7 +2665,7 @@
       <c r="D5" s="16"/>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="86.4">
       <c r="B6" s="6" t="s">
         <v>53</v>
       </c>
@@ -2282,7 +2675,7 @@
       <c r="D6" s="16"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="72">
       <c r="B7" s="6" t="s">
         <v>54</v>
       </c>
@@ -2292,7 +2685,7 @@
       <c r="D7" s="16"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="57.6">
       <c r="B8" s="6" t="s">
         <v>55</v>
       </c>
@@ -2302,7 +2695,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="43.2">
       <c r="B9" s="6" t="s">
         <v>56</v>
       </c>
@@ -2312,7 +2705,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="115.2">
       <c r="B10" s="6" t="s">
         <v>58</v>
       </c>
@@ -2329,28 +2722,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A295311-B3FB-EB4A-972B-F75B2FCBA8D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" customWidth="1"/>
     <col min="3" max="3" width="81" customWidth="1"/>
-    <col min="4" max="4" width="42.1640625" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="23.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -2365,52 +2758,155 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="43.2">
       <c r="B4" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>66</v>
       </c>
+      <c r="D4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" ht="57.6">
+      <c r="B5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" ht="43.2">
+      <c r="B6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" ht="57.6">
+      <c r="B7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" ht="115.2">
+      <c r="B8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" customWidth="1"/>
+    <col min="3" max="3" width="66.6640625" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="23.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2">
+      <c r="B4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="D4" s="16"/>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="72">
       <c r="B5" s="6" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="57.6" customHeight="1">
       <c r="B6" s="6" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="57.6">
       <c r="B7" s="6" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="57.6">
       <c r="B8" s="6" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="15"/>
